--- a/SchedulingData/dynamic15/pso/scheduling1_2.xlsx
+++ b/SchedulingData/dynamic15/pso/scheduling1_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,173 +462,173 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>40.8</v>
+        <v>73.45999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>26.62</v>
+        <v>26.304</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59.16</v>
+        <v>47.66</v>
       </c>
       <c r="E3" t="n">
-        <v>26.744</v>
+        <v>27.404</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>40.8</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>78.44</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>23.496</v>
+        <v>25.02</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>73.45999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>52.22</v>
+        <v>120.46</v>
       </c>
       <c r="E5" t="n">
-        <v>25.968</v>
+        <v>23.224</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>58.2</v>
+        <v>135.06</v>
       </c>
       <c r="E6" t="n">
-        <v>26.36</v>
+        <v>22.284</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>80.28</v>
+        <v>95.7</v>
       </c>
       <c r="E7" t="n">
-        <v>26.612</v>
+        <v>25.08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>52.22</v>
+        <v>47.66</v>
       </c>
       <c r="D8" t="n">
-        <v>132.5</v>
+        <v>96.26000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>22.56</v>
+        <v>24.164</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>96.26000000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>56.2</v>
+        <v>141.16</v>
       </c>
       <c r="E9" t="n">
-        <v>25.08</v>
+        <v>21.304</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>56.2</v>
+        <v>141.16</v>
       </c>
       <c r="D10" t="n">
-        <v>134.1</v>
+        <v>217</v>
       </c>
       <c r="E10" t="n">
-        <v>20.4</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="11">
@@ -637,93 +637,93 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>132.5</v>
+        <v>135.06</v>
       </c>
       <c r="D11" t="n">
-        <v>204.58</v>
+        <v>197.84</v>
       </c>
       <c r="E11" t="n">
-        <v>18.972</v>
+        <v>18.636</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>80.28</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>140.78</v>
+        <v>51.86</v>
       </c>
       <c r="E12" t="n">
-        <v>21.692</v>
+        <v>26.984</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>59.16</v>
+        <v>120.46</v>
       </c>
       <c r="D13" t="n">
-        <v>103.2</v>
+        <v>170.96</v>
       </c>
       <c r="E13" t="n">
-        <v>23.48</v>
+        <v>19.304</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>204.58</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>268.36</v>
+        <v>69.58</v>
       </c>
       <c r="E14" t="n">
-        <v>15.724</v>
+        <v>26.192</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>103.2</v>
+        <v>51.86</v>
       </c>
       <c r="D15" t="n">
-        <v>150.38</v>
+        <v>109.2</v>
       </c>
       <c r="E15" t="n">
-        <v>19.892</v>
+        <v>23.86</v>
       </c>
     </row>
     <row r="16">
@@ -732,131 +732,131 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>140.78</v>
+        <v>69.58</v>
       </c>
       <c r="D16" t="n">
-        <v>199.18</v>
+        <v>132.08</v>
       </c>
       <c r="E16" t="n">
-        <v>18.452</v>
+        <v>22.552</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>150.38</v>
+        <v>170.96</v>
       </c>
       <c r="D17" t="n">
-        <v>217.38</v>
+        <v>232.06</v>
       </c>
       <c r="E17" t="n">
-        <v>16.812</v>
+        <v>16.784</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>217.38</v>
+        <v>217</v>
       </c>
       <c r="D18" t="n">
-        <v>291.24</v>
+        <v>289.6</v>
       </c>
       <c r="E18" t="n">
-        <v>13.556</v>
+        <v>13.64</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>58.2</v>
+        <v>95.7</v>
       </c>
       <c r="D19" t="n">
-        <v>110.88</v>
+        <v>152.42</v>
       </c>
       <c r="E19" t="n">
-        <v>22.712</v>
+        <v>21.528</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>110.88</v>
+        <v>132.08</v>
       </c>
       <c r="D20" t="n">
-        <v>180.48</v>
+        <v>192.46</v>
       </c>
       <c r="E20" t="n">
-        <v>19.852</v>
+        <v>19.604</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>78.44</v>
+        <v>152.42</v>
       </c>
       <c r="D21" t="n">
-        <v>149.54</v>
+        <v>240.22</v>
       </c>
       <c r="E21" t="n">
-        <v>19.976</v>
+        <v>16.848</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>199.18</v>
+        <v>240.22</v>
       </c>
       <c r="D22" t="n">
-        <v>268.12</v>
+        <v>291.14</v>
       </c>
       <c r="E22" t="n">
-        <v>15.148</v>
+        <v>12.896</v>
       </c>
     </row>
     <row r="23">
@@ -865,93 +865,93 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>291.24</v>
+        <v>291.14</v>
       </c>
       <c r="D23" t="n">
-        <v>350</v>
+        <v>340.08</v>
       </c>
       <c r="E23" t="n">
-        <v>10.28</v>
+        <v>9.632</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>268.12</v>
+        <v>109.2</v>
       </c>
       <c r="D24" t="n">
-        <v>349.44</v>
+        <v>149.4</v>
       </c>
       <c r="E24" t="n">
-        <v>11.116</v>
+        <v>20.48</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>349.44</v>
+        <v>289.6</v>
       </c>
       <c r="D25" t="n">
-        <v>397.14</v>
+        <v>329.46</v>
       </c>
       <c r="E25" t="n">
-        <v>8.956</v>
+        <v>10.784</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>149.54</v>
+        <v>192.46</v>
       </c>
       <c r="D26" t="n">
-        <v>200.74</v>
+        <v>230.26</v>
       </c>
       <c r="E26" t="n">
-        <v>17.456</v>
+        <v>17.444</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>268.36</v>
+        <v>340.08</v>
       </c>
       <c r="D27" t="n">
-        <v>335.84</v>
+        <v>399.32</v>
       </c>
       <c r="E27" t="n">
-        <v>11.616</v>
+        <v>6.328</v>
       </c>
     </row>
     <row r="28">
@@ -960,93 +960,93 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>335.84</v>
+        <v>197.84</v>
       </c>
       <c r="D28" t="n">
-        <v>384.3</v>
+        <v>242.16</v>
       </c>
       <c r="E28" t="n">
-        <v>8.880000000000001</v>
+        <v>14.844</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>200.74</v>
+        <v>242.16</v>
       </c>
       <c r="D29" t="n">
-        <v>266.6</v>
+        <v>308.28</v>
       </c>
       <c r="E29" t="n">
-        <v>13.48</v>
+        <v>11.852</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>134.1</v>
+        <v>308.28</v>
       </c>
       <c r="D30" t="n">
-        <v>208.1</v>
+        <v>347.24</v>
       </c>
       <c r="E30" t="n">
-        <v>15.6</v>
+        <v>8.596</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>180.48</v>
+        <v>230.26</v>
       </c>
       <c r="D31" t="n">
-        <v>243.5</v>
+        <v>295.54</v>
       </c>
       <c r="E31" t="n">
-        <v>16.66</v>
+        <v>14.036</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>243.5</v>
+        <v>149.4</v>
       </c>
       <c r="D32" t="n">
-        <v>313.8</v>
+        <v>225.16</v>
       </c>
       <c r="E32" t="n">
-        <v>12.74</v>
+        <v>16.504</v>
       </c>
     </row>
     <row r="33">
@@ -1055,74 +1055,74 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>397.14</v>
+        <v>295.54</v>
       </c>
       <c r="D33" t="n">
-        <v>443.36</v>
+        <v>339.32</v>
       </c>
       <c r="E33" t="n">
-        <v>5.964</v>
+        <v>10.788</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>313.8</v>
+        <v>399.32</v>
       </c>
       <c r="D34" t="n">
-        <v>384.22</v>
+        <v>464.24</v>
       </c>
       <c r="E34" t="n">
-        <v>9.827999999999999</v>
+        <v>3.416</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>350</v>
+        <v>225.16</v>
       </c>
       <c r="D35" t="n">
-        <v>441.42</v>
+        <v>275.24</v>
       </c>
       <c r="E35" t="n">
-        <v>6.728</v>
+        <v>13.116</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>208.1</v>
+        <v>275.24</v>
       </c>
       <c r="D36" t="n">
-        <v>287.12</v>
+        <v>320.34</v>
       </c>
       <c r="E36" t="n">
-        <v>11.808</v>
+        <v>9.736000000000001</v>
       </c>
     </row>
     <row r="37">
@@ -1131,55 +1131,55 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>287.12</v>
+        <v>232.06</v>
       </c>
       <c r="D37" t="n">
-        <v>342.02</v>
+        <v>330.86</v>
       </c>
       <c r="E37" t="n">
-        <v>8.428000000000001</v>
+        <v>11.984</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>266.6</v>
+        <v>330.86</v>
       </c>
       <c r="D38" t="n">
-        <v>314.1</v>
+        <v>402.08</v>
       </c>
       <c r="E38" t="n">
-        <v>10.36</v>
+        <v>7.952</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>384.22</v>
+        <v>402.08</v>
       </c>
       <c r="D39" t="n">
-        <v>448.2</v>
+        <v>452.3</v>
       </c>
       <c r="E39" t="n">
-        <v>7.02</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="40">
@@ -1188,71 +1188,71 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>384.3</v>
+        <v>347.24</v>
       </c>
       <c r="D40" t="n">
-        <v>435.64</v>
+        <v>390.48</v>
       </c>
       <c r="E40" t="n">
-        <v>4.876</v>
+        <v>5.892</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>342.02</v>
+        <v>329.46</v>
       </c>
       <c r="D41" t="n">
-        <v>428.42</v>
+        <v>386.74</v>
       </c>
       <c r="E41" t="n">
-        <v>3.868</v>
+        <v>7.196</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>435.64</v>
+        <v>452.3</v>
       </c>
       <c r="D42" t="n">
-        <v>505.56</v>
+        <v>513.9</v>
       </c>
       <c r="E42" t="n">
-        <v>1.964</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>505.56</v>
+        <v>513.9</v>
       </c>
       <c r="D43" t="n">
-        <v>568.63</v>
+        <v>602.36</v>
       </c>
       <c r="E43" t="n">
         <v>30</v>
@@ -1264,36 +1264,36 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>443.36</v>
+        <v>339.32</v>
       </c>
       <c r="D44" t="n">
-        <v>486.6</v>
+        <v>392.54</v>
       </c>
       <c r="E44" t="n">
-        <v>3.26</v>
+        <v>7.596</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>568.63</v>
+        <v>602.36</v>
       </c>
       <c r="D45" t="n">
-        <v>639.85</v>
+        <v>640.5599999999999</v>
       </c>
       <c r="E45" t="n">
-        <v>26.048</v>
+        <v>26.88</v>
       </c>
     </row>
     <row r="46">
@@ -1302,36 +1302,36 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>314.1</v>
+        <v>320.34</v>
       </c>
       <c r="D46" t="n">
-        <v>361.1</v>
+        <v>410.24</v>
       </c>
       <c r="E46" t="n">
-        <v>8.279999999999999</v>
+        <v>4.816</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>361.1</v>
+        <v>392.54</v>
       </c>
       <c r="D47" t="n">
-        <v>426.38</v>
+        <v>429.54</v>
       </c>
       <c r="E47" t="n">
-        <v>5.332</v>
+        <v>5.516</v>
       </c>
     </row>
     <row r="48">
@@ -1340,17 +1340,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>486.6</v>
+        <v>429.54</v>
       </c>
       <c r="D48" t="n">
-        <v>571.6799999999999</v>
+        <v>486.92</v>
       </c>
       <c r="E48" t="n">
-        <v>30</v>
+        <v>1.408</v>
       </c>
     </row>
     <row r="49">
@@ -1359,60 +1359,60 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>571.6799999999999</v>
+        <v>486.92</v>
       </c>
       <c r="D49" t="n">
-        <v>651.26</v>
+        <v>560.9</v>
       </c>
       <c r="E49" t="n">
-        <v>26.192</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>448.2</v>
+        <v>410.24</v>
       </c>
       <c r="D50" t="n">
-        <v>536.0599999999999</v>
+        <v>472.14</v>
       </c>
       <c r="E50" t="n">
-        <v>3.324</v>
+        <v>0.256</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>428.42</v>
+        <v>472.14</v>
       </c>
       <c r="D51" t="n">
-        <v>485.92</v>
+        <v>553.53</v>
       </c>
       <c r="E51" t="n">
-        <v>0.748</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1420,10 +1420,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>485.92</v>
+        <v>464.24</v>
       </c>
       <c r="D52" t="n">
-        <v>551.42</v>
+        <v>524.41</v>
       </c>
       <c r="E52" t="n">
         <v>30</v>
@@ -1431,173 +1431,192 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>651.26</v>
+        <v>524.41</v>
       </c>
       <c r="D53" t="n">
-        <v>705.8200000000001</v>
+        <v>591.79</v>
       </c>
       <c r="E53" t="n">
-        <v>23.336</v>
+        <v>26.412</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>426.38</v>
+        <v>390.48</v>
       </c>
       <c r="D54" t="n">
-        <v>487.54</v>
+        <v>451.9</v>
       </c>
       <c r="E54" t="n">
-        <v>2.316</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>441.42</v>
+        <v>451.9</v>
       </c>
       <c r="D55" t="n">
-        <v>496.32</v>
+        <v>530.08</v>
       </c>
       <c r="E55" t="n">
-        <v>3.368</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>551.42</v>
+        <v>530.08</v>
       </c>
       <c r="D56" t="n">
-        <v>599.08</v>
+        <v>584.24</v>
       </c>
       <c r="E56" t="n">
-        <v>27.404</v>
+        <v>27.264</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>536.0599999999999</v>
+        <v>584.24</v>
       </c>
       <c r="D57" t="n">
-        <v>584.52</v>
+        <v>648.4</v>
       </c>
       <c r="E57" t="n">
-        <v>0.588</v>
+        <v>23.988</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>584.52</v>
+        <v>553.53</v>
       </c>
       <c r="D58" t="n">
-        <v>665.14</v>
+        <v>593.61</v>
       </c>
       <c r="E58" t="n">
-        <v>30</v>
+        <v>27.192</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>496.32</v>
+        <v>560.9</v>
       </c>
       <c r="D59" t="n">
-        <v>585.98</v>
+        <v>630.9</v>
       </c>
       <c r="E59" t="n">
-        <v>30</v>
+        <v>26.64</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>585.98</v>
+        <v>386.74</v>
       </c>
       <c r="D60" t="n">
-        <v>662.38</v>
+        <v>434.14</v>
       </c>
       <c r="E60" t="n">
-        <v>25.02</v>
+        <v>4.076</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>599.08</v>
+        <v>434.14</v>
       </c>
       <c r="D61" t="n">
-        <v>651.98</v>
+        <v>478</v>
       </c>
       <c r="E61" t="n">
-        <v>23.744</v>
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>3</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>depot2</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>478</v>
+      </c>
+      <c r="D62" t="n">
+        <v>577.96</v>
+      </c>
+      <c r="E62" t="n">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
